--- a/data/long_dif/P18_6-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_6-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,92; 37,19</t>
+          <t>20,65; 38,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 37,66</t>
+          <t>18,38; 36,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,1; 50,16</t>
+          <t>30,12; 51,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 34,57</t>
+          <t>20,38; 46,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 45,4</t>
+          <t>16,09; 31,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 36,71</t>
+          <t>26,19; 44,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 32,96</t>
+          <t>22,24; 38,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,94; 38,2</t>
+          <t>15,5; 34,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,7; 42,33</t>
+          <t>19,84; 31,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,05; 36,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28,73; 42,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 36,76</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>41,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39,73%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 52,19</t>
+          <t>34,87; 53,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 45,74</t>
+          <t>25,23; 44,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,97; 55,04</t>
+          <t>32,77; 53,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,04; 47,65</t>
+          <t>23,52; 50,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,61; 42,67</t>
+          <t>30,42; 49,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,82; 54,81</t>
+          <t>26,7; 44,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 47,7</t>
+          <t>36,07; 53,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,63; 42,48</t>
+          <t>33,18; 52,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,64; 51,35</t>
+          <t>35,11; 47,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 41,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 50,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31,93; 48,43</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>32,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,45; 37,64</t>
+          <t>20,24; 36,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,24; 48,17</t>
+          <t>28,95; 50,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 25,23</t>
+          <t>9,66; 26,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 46,07</t>
+          <t>20,13; 46,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,07; 40,19</t>
+          <t>28,57; 47,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,27; 34,2</t>
+          <t>21,74; 40,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 38,45</t>
+          <t>19,3; 33,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,04; 40,65</t>
+          <t>24,77; 43,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,33</t>
+          <t>26,27; 39,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,44; 42,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 26,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 40,23</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 27,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 38,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 44,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,55; 42,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 40,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 37,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 39,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,25%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,33; 53,04</t>
+          <t>12,37; 26,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,35; 64,39</t>
+          <t>21,03; 39,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,13; 55,82</t>
+          <t>25,16; 44,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,89; 43,89</t>
+          <t>16,44; 46,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,68; 57,47</t>
+          <t>15,84; 30,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 51,71</t>
+          <t>25,44; 41,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,86; 45,4</t>
+          <t>25,38; 39,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,47; 58,66</t>
+          <t>26,1; 44,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,27; 51,54</t>
+          <t>15,88; 26,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,61; 37,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,44; 38,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22,75; 42,11</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>38,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43,46%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,33; 53,94</t>
+          <t>30,23; 54,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,52; 26,48</t>
+          <t>42,12; 65,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 36,21</t>
+          <t>34,82; 55,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,58; 50,58</t>
+          <t>30,72; 64,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 26,4</t>
+          <t>26,96; 43,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,02; 29,31</t>
+          <t>39,31; 56,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,59; 49,01</t>
+          <t>37,5; 52,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 24,02</t>
+          <t>32,57; 50,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,42; 31,89</t>
+          <t>31,0; 45,47</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43,32; 59,01</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,97; 51,77</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35,19; 57,03</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 36,94</t>
+          <t>29,58; 52,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,6; 40,82</t>
+          <t>11,33; 26,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 29,9</t>
+          <t>12,2; 40,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 32,55</t>
+          <t>15,27; 37,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,89; 46,77</t>
+          <t>33,74; 50,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,29; 35,93</t>
+          <t>12,57; 27,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 30,91</t>
+          <t>16,69; 29,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,89; 42,12</t>
+          <t>16,61; 32,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,96; 31,45</t>
+          <t>34,04; 49,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 23,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 32,54</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 31,96</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,75; 50,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,14; 50,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,88; 61,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,85; 42,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,79; 45,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,61; 47,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,42; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,47; 45,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,41; 53,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 49,6</t>
+          <t>13,76; 34,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,15; 38,08</t>
+          <t>25,61; 42,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 30,71</t>
+          <t>16,7; 28,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33,39; 46,89</t>
+          <t>30,9; 49,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,82; 26,37</t>
+          <t>17,7; 29,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>21,75; 32,69</t>
+          <t>33,52; 46,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,09; 45,28</t>
+          <t>25,08; 35,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,35; 30,44</t>
+          <t>21,18; 32,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,03; 29,77</t>
+          <t>17,82; 29,08</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>31,88; 42,38</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 30,85</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 38,5</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>40,15%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,57; 24,35</t>
+          <t>34,45; 52,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,59; 40,9</t>
+          <t>30,53; 48,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,74; 31,91</t>
+          <t>45,21; 60,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,78; 31,87</t>
+          <t>27,72; 43,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>32,65; 45,63</t>
+          <t>30,5; 43,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,84; 29,33</t>
+          <t>32,44; 45,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,34; 26,22</t>
+          <t>37,15; 49,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,6; 41,08</t>
+          <t>34,13; 46,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,77</t>
+          <t>34,91; 45,68</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,86; 45,03</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,88; 52,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>32,71; 43,24</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>39,04; 53,1</t>
+          <t>25,81; 43,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33,89; 48,28</t>
+          <t>19,93; 39,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46,85; 60,89</t>
+          <t>18,9; 30,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33,46; 45,67</t>
+          <t>18,72; 34,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,26; 48,73</t>
+          <t>33,43; 46,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>43,39; 54,47</t>
+          <t>15,84; 26,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>37,97; 47,16</t>
+          <t>21,73; 32,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>37,45; 46,73</t>
+          <t>27,09; 39,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>46,62; 55,76</t>
+          <t>32,33; 42,97</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>19,11; 30,23</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>21,66; 29,94</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 34,96</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,65; 42,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,14; 34,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>29,63; 42,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,73; 24,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,48; 32,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>31,07; 39,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,29; 27,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>20,3; 27,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>28,38%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>35,56%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>16,49; 33,09</t>
+          <t>13,35; 23,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>24,36; 41,89</t>
+          <t>26,35; 40,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23,77; 36,3</t>
+          <t>19,33; 30,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19,31; 33,83</t>
+          <t>26,13; 46,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>26,95; 42,68</t>
+          <t>18,65; 29,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>20,37; 32,51</t>
+          <t>31,49; 44,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,01; 30,28</t>
+          <t>20,33; 29,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>28,19; 40,27</t>
+          <t>22,52; 34,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,37; 32,11</t>
+          <t>17,68; 25,29</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>31,22; 40,61</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>21,07; 28,9</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 38,53</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>50,99%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>43,06%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>51,42%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>42,61; 60,16</t>
+          <t>39,35; 53,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>42,24; 59,1</t>
+          <t>34,12; 49,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>38,96; 53,42</t>
+          <t>47,93; 61,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,84; 47,18</t>
+          <t>33,85; 51,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,73; 53,51</t>
+          <t>34,24; 46,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>42,46; 56,17</t>
+          <t>36,31; 49,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>39,37; 50,69</t>
+          <t>42,5; 53,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>41,92; 53,42</t>
+          <t>35,32; 49,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,05; 52,52</t>
+          <t>38,52; 47,78</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>37,25; 46,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>47,11; 56,15</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>37,01; 48,24</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>35,62%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>26,42%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>18,48; 31,99</t>
+          <t>29,32; 42,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>11,46; 24,48</t>
+          <t>18,48; 34,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,85; 30,68</t>
+          <t>15,66; 26,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>27,44; 42,39</t>
+          <t>16,55; 30,24</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,5; 28,7</t>
+          <t>30,07; 42,25</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,73; 31,51</t>
+          <t>15,06; 25,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>25,26; 34,73</t>
+          <t>22,42; 32,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>14,54; 23,56</t>
+          <t>24,15; 35,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>20,89; 28,74</t>
+          <t>31,25; 40,55</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 27,68</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 27,51</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>21,67; 31,35</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>18,21; 36,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>14,44; 37,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>19,58; 35,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,91; 33,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>31,64; 50,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>21,73; 37,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>20,81; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>26,35; 40,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>22,7; 33,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>28,58%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>38,51; 60,77</t>
+          <t>16,7; 31,78</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>43,25; 67,75</t>
+          <t>25,45; 41,76</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>37,77; 56,48</t>
+          <t>23,44; 35,81</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>31,21; 47,75</t>
+          <t>19,66; 35,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>26,69; 46,41</t>
+          <t>18,11; 31,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>39,25; 56,17</t>
+          <t>27,34; 42,71</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>37,47; 50,47</t>
+          <t>20,23; 32,09</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>36,07; 51,89</t>
+          <t>21,88; 39,12</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>40,92; 54,07</t>
+          <t>19,55; 29,12</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>27,79; 38,83</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 31,85</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 34,13</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>45,58%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>47,42%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>47,66%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>42,23%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>17,14; 33,3</t>
+          <t>43,48; 60,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>14,43; 30,81</t>
+          <t>42,34; 58,48</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>18,38; 33,57</t>
+          <t>39,71; 53,85</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>27,31; 43,14</t>
+          <t>34,03; 52,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,53; 33,55</t>
+          <t>31,72; 46,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>17,63; 31,72</t>
+          <t>36,3; 52,41</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>24,56; 36,49</t>
+          <t>42,56; 56,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>18,09; 29,44</t>
+          <t>31,72; 49,2</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>19,61; 30,08</t>
+          <t>39,68; 51,18</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 53,71</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>42,41; 52,48</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>36,02; 48,78</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>29,19%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,25</t>
+          <t>18,97; 33,05</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>26,13; 33,38</t>
+          <t>12,03; 23,71</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,8; 32,36</t>
+          <t>18,78; 30,48</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>22,23; 28,21</t>
+          <t>21,87; 39,6</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>34,22; 40,69</t>
+          <t>29,76; 43,9</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,84; 31,03</t>
+          <t>14,66; 28,68</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,12</t>
+          <t>19,53; 31,68</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>31,39; 36,31</t>
+          <t>21,13; 38,86</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>26,8; 30,87</t>
+          <t>25,55; 35,76</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>14,84; 23,66</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 29,22</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>24,14; 36,57</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>40,66; 48,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>41,31; 49,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>45,24; 52,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>34,92; 41,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>36,58; 43,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>42,94; 49,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>40,21; 45,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>45,22; 49,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>33,3%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>39,64%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,31</t>
+          <t>18,43; 33,88</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,55</t>
+          <t>15,6; 34,84</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,52</t>
+          <t>19,28; 34,97</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>33,95; 40,31</t>
+          <t>31,16; 55,09</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>19,6; 25,4</t>
+          <t>21,44; 38,25</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>22,87; 27,79</t>
+          <t>31,86; 48,51</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>32,18; 37,45</t>
+          <t>23,53; 38,14</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>21,17; 25,82</t>
+          <t>27,6; 48,92</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>21,71; 25,78</t>
+          <t>21,88; 33,65</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 40,0</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 33,94</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>32,29; 47,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>47,24%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>53,74%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>48,37%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>41,34%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>38,66%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>45,51%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>36,84%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>42,4%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>38,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>38,5; 59,42</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>42,49; 64,53</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>39,36; 57,08</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>30,17; 53,08</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>30,58; 46,57</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>26,13; 43,53</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>37,06; 53,95</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>27,41; 48,45</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>36,58; 49,09</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>35,75; 50,46</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>40,42; 52,54</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 46,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>33,66%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>26,03%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>30,7%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 35,8</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 30,7</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>18,83; 33,39</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 25,32</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>26,02; 41,34</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>18,43; 34,63</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 31,64</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 36,09</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 36,15</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>18,88; 30,25</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,17; 30,12</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 28,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>34,0%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>37,26%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 26,08</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>26,62; 34,0</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>25,76; 32,46</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 39,32</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 27,48</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>34,1; 40,42</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 31,67</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>26,88; 33,88</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 25,61</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>31,39; 36,39</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 31,31</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>29,31; 35,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>45,41%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>45,08%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>48,86%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>45,78%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>47,28%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 49,26</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 49,57</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>45,56; 52,62</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>36,09; 46,88</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>35,42; 41,56</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>37,02; 43,43</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>42,96; 48,89</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 43,91</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>39,43; 44,41</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>40,07; 45,34</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 49,66</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>37,92; 44,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>32,17%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>34,78%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>28,59; 35,82</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>21,26; 28,64</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 25,47</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 28,95</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>34,42; 40,3</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 25,83</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 27,88</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 32,67</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>32,52; 37,26</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>21,18; 25,99</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 25,89</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 29,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
